--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value428.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value428.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.940030540781002</v>
+        <v>1.162972569465637</v>
       </c>
       <c r="B1">
-        <v>1.479958004836536</v>
+        <v>2.389852523803711</v>
       </c>
       <c r="C1">
-        <v>2.394967302744393</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.492587335168547</v>
+        <v>1.783748269081116</v>
       </c>
       <c r="E1">
-        <v>1.806293652360971</v>
+        <v>1.195452213287354</v>
       </c>
     </row>
   </sheetData>
